--- a/analysis/Little law 50ms.xlsx
+++ b/analysis/Little law 50ms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaia\Documents\GitHub\PECSNproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaia\Documents\GitHub\PECSNproject\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{849DD1E6-B342-4C66-B31E-972AC3B0B561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48B692D-1279-4D70-9A7B-15310F7A10AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9660" yWindow="36" windowWidth="17280" windowHeight="8964" xr2:uid="{42178E62-4AE3-44FB-90C3-14E7EE1C2ED3}"/>
+    <workbookView xWindow="240" yWindow="396" windowWidth="17280" windowHeight="8964" xr2:uid="{42178E62-4AE3-44FB-90C3-14E7EE1C2ED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -196,8 +196,8 @@
       <xdr:rowOff>245533</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1888067" cy="374077"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CasellaDiTesto 1">
@@ -340,7 +340,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CasellaDiTesto 1">
@@ -435,8 +435,8 @@
       <xdr:rowOff>300936</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1118690" cy="391637"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CasellaDiTesto 2">
@@ -534,7 +534,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CasellaDiTesto 2">
@@ -909,7 +909,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="O8" sqref="O8:V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,9 +924,10 @@
     <col min="9" max="9" width="12.88671875" customWidth="1"/>
     <col min="10" max="14" width="18.109375" customWidth="1"/>
     <col min="17" max="17" width="19.77734375" customWidth="1"/>
+    <col min="21" max="21" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1029,10 +1030,10 @@
       </c>
       <c r="J4" s="5">
         <f>K4+H3</f>
-        <v>0.17038578841622934</v>
+        <v>0.16968585441762873</v>
       </c>
       <c r="K4" s="5">
-        <v>1.48302328606738E-2</v>
+        <v>1.41302988620732E-2</v>
       </c>
       <c r="L4" s="5">
         <v>8.4925129709973995E-3</v>
@@ -1058,10 +1059,10 @@
       </c>
       <c r="J5" s="5">
         <f>K5+H3</f>
-        <v>0.16792987883475113</v>
+        <v>0.16880961228787314</v>
       </c>
       <c r="K5" s="5">
-        <v>1.23743232791956E-2</v>
+        <v>1.3254056732317601E-2</v>
       </c>
       <c r="L5" s="5">
         <v>8.43345533336207E-3</v>
@@ -1087,10 +1088,10 @@
       </c>
       <c r="J6" s="5">
         <f>K6+H3</f>
-        <v>0.16903193917455323</v>
+        <v>0.16895012118892713</v>
       </c>
       <c r="K6" s="5">
-        <v>1.34763836189977E-2</v>
+        <v>1.3394565633371601E-2</v>
       </c>
       <c r="L6" s="5">
         <v>8.4783013459563007E-3</v>
@@ -1116,10 +1117,10 @@
       </c>
       <c r="J7" s="5">
         <f>K7+H3</f>
-        <v>0.17167435235718004</v>
+        <v>0.16891409367779872</v>
       </c>
       <c r="K7" s="5">
-        <v>1.6118796801624501E-2</v>
+        <v>1.33585381222432E-2</v>
       </c>
       <c r="L7" s="5">
         <v>8.49581274434116E-3</v>
@@ -1145,10 +1146,10 @@
       </c>
       <c r="J8" s="5">
         <f>K8+H3</f>
-        <v>0.16838421045203714</v>
+        <v>0.17188721384701272</v>
       </c>
       <c r="K8" s="5">
-        <v>1.2828654896481601E-2</v>
+        <v>1.6331658291457201E-2</v>
       </c>
       <c r="L8" s="5">
         <v>8.4496289713504296E-3</v>
@@ -1174,10 +1175,10 @@
       </c>
       <c r="J9" s="5">
         <f>K9+H3</f>
-        <v>0.17219856936022582</v>
+        <v>0.17026330248087562</v>
       </c>
       <c r="K9" s="5">
-        <v>1.6643013804670301E-2</v>
+        <v>1.4707746925320101E-2</v>
       </c>
       <c r="L9" s="5">
         <v>8.4919664871506897E-3</v>
@@ -1203,10 +1204,10 @@
       </c>
       <c r="J10" s="5">
         <f>K10+H3</f>
-        <v>0.17099617820180202</v>
+        <v>0.17162875041213313</v>
       </c>
       <c r="K10" s="5">
-        <v>1.54406226462465E-2</v>
+        <v>1.6073194856577599E-2</v>
       </c>
       <c r="L10" s="5">
         <v>8.4846911257696403E-3</v>
@@ -1232,10 +1233,10 @@
       </c>
       <c r="J11" s="5">
         <f>K11+H3</f>
-        <v>0.16901485411903422</v>
+        <v>0.16821854452245624</v>
       </c>
       <c r="K11" s="5">
-        <v>1.3459298563478699E-2</v>
+        <v>1.26629889669007E-2</v>
       </c>
       <c r="L11" s="5">
         <v>8.4954929598689E-3</v>
@@ -1261,10 +1262,10 @@
       </c>
       <c r="J12" s="5">
         <f>K12+H3</f>
-        <v>0.16952203600248283</v>
+        <v>0.17099105720935923</v>
       </c>
       <c r="K12" s="5">
-        <v>1.3966480446927301E-2</v>
+        <v>1.5435501653803699E-2</v>
       </c>
       <c r="L12" s="5">
         <v>8.5029391569761293E-3</v>
@@ -1290,10 +1291,10 @@
       </c>
       <c r="J13" s="5">
         <f>K13+H3</f>
-        <v>0.16951202162469764</v>
+        <v>0.16948763666017053</v>
       </c>
       <c r="K13" s="5">
-        <v>1.3956466069142101E-2</v>
+        <v>1.3932081104615E-2</v>
       </c>
       <c r="L13" s="5">
         <v>8.4825491701238098E-3</v>
@@ -1314,7 +1315,6 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
       <c r="V16" s="5"/>
     </row>
     <row r="17" spans="11:22" x14ac:dyDescent="0.3">
@@ -1327,7 +1327,6 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
       <c r="V17" s="5"/>
     </row>
     <row r="18" spans="11:22" x14ac:dyDescent="0.3">
@@ -1340,7 +1339,6 @@
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
       <c r="V18" s="5"/>
     </row>
     <row r="19" spans="11:22" x14ac:dyDescent="0.3">
